--- a/CLAVES ELÉCTRICA.xlsx
+++ b/CLAVES ELÉCTRICA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Facultad\Servicio Social\FORMATOS FINALES CORREGIDOS COMPLETOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Facultad\Servicio Social\FORMATOS FINALES CORREGIDOS COMPLETOS\PlanesEstudio\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1245,8 +1245,8 @@
   </sheetPr>
   <dimension ref="A1:R156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H143" sqref="H143"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
